--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillStepConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillStepConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66E5091-BBF8-4AE4-BD5D-16E1A04A7514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26507B6D-8841-4950-B8DD-F6F86CAE9782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -233,7 +233,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=,),string</t>
+    <t>(array#sep=,),string</t>
+  </si>
+  <si>
+    <t>(array#sep=,),string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -746,7 +749,7 @@
         <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>

--- a/Unity/Assets/Config/Excel/Datas/Battle/SkillStepConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Battle/SkillStepConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\Magic\Unity\Assets\Config\Excel\Datas\Battle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158829BC-0278-4A15-B6CA-6F87D2E8FCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB80B1-57C5-41DC-B57D-302761C08E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,33 +326,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -663,341 +660,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>100101</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>1001</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>100</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>200</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1000</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>100201</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>1002</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>200</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>1001</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>100301</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <v>1003</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>200</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="7">
-        <v>10021</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="6">
+        <v>1002</v>
+      </c>
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>1</v>
       </c>
-      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>100401</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
         <v>1004</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>200</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>1004</v>
       </c>
       <c r="J14" s="1">
@@ -1014,56 +995,56 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>200</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>1002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>100501</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6">
         <v>1005</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>2</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>200</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>1004</v>
       </c>
       <c r="J17" s="1">
@@ -1080,40 +1061,40 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>100601</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6">
         <v>1006</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>200</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>10000</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="1">
@@ -1121,66 +1102,66 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>1002</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>100602</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
         <v>1006</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>1002</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>100701</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8">
         <v>1007</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>33</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="1">
@@ -1191,32 +1172,32 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>200</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>1000</v>
       </c>
       <c r="J24" s="1">
@@ -1225,24 +1206,6 @@
       <c r="K24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
